--- a/code-names.xlsx
+++ b/code-names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1C7B7-7887-4421-A41B-FA071269D4D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B4FF-A89B-4B11-B2F4-7C0D611F339E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>CODE</t>
   </si>
   <si>
-    <t>FOLDER</t>
-  </si>
-  <si>
     <t>git\Projects\automatic-liquid-dispenser\hardware\controller\soap-disp-smd-8-channel</t>
   </si>
   <si>
@@ -43,6 +40,15 @@
   </si>
   <si>
     <t>git\Projects\automatic-liquid-dispenser\hardware\controller\soap-disp-smd-32-channel</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\firmware\ver001</t>
   </si>
 </sst>
 </file>
@@ -387,89 +393,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code-names.xlsx
+++ b/code-names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89B4FF-A89B-4B11-B2F4-7C0D611F339E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F7C85-963D-4701-B8DA-5C1A86AFB29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,14 +396,14 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/code-names.xlsx
+++ b/code-names.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F7C85-963D-4701-B8DA-5C1A86AFB29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615BD2F-6388-404D-A11A-5D44F19F0ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>CODE</t>
   </si>
@@ -49,13 +58,72 @@
   </si>
   <si>
     <t>git\Projects\automatic-liquid-dispenser\firmware\ver001</t>
+  </si>
+  <si>
+    <t>Ref: 1619070266072</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\firmware\ver002</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Ref: 1620570420374</t>
+  </si>
+  <si>
+    <t>Ref: 1621175822286</t>
+  </si>
+  <si>
+    <t>Ref: 1620780613205</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\hardware\controller\soap-disp-20210503</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\hardware\others\freewheel-2P</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\hardware\others\solidSwitches-8Channel</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>git\Projects\automatic-liquid-dispenser\hardware\controller\soap-disp-20210413</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>8 channel - VMLS</t>
+  </si>
+  <si>
+    <t>32 channel - VMLS</t>
+  </si>
+  <si>
+    <t>32 channel - VMLS with SD</t>
+  </si>
+  <si>
+    <t>Self powered 32 channel - VMLS with SD</t>
+  </si>
+  <si>
+    <t>Protection for relays</t>
+  </si>
+  <si>
+    <t>8-Channel Relays for VMLS</t>
+  </si>
+  <si>
+    <t>Error in hardware … DON’T USE
+1. 12V and 5V are connected to GND. Can be corrected by cutting the tracks … But have to make a short circuit between 5V at relays to 5V at programmer
+2. The pins for COIN Acceptor and Display are different from the required standard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +139,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,11 +187,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,111 +487,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
